--- a/RiC-O_0-2_listOfObjectProperties.xlsx
+++ b/RiC-O_0-2_listOfObjectProperties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shared\sparnatural\demo-an\sparnatural-demonstrateur-an\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\shared\corpus-demo-sparnatural\corpus-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D87CC3-72F0-4C0D-803D-9DAFF2E9D232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3C5816-548D-4530-88C4-995D591BEAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query-result_onObjectProperties" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="807">
   <si>
     <t>Ontology IRI</t>
   </si>
@@ -39,9 +39,6 @@
     <t>rico</t>
   </si>
   <si>
-    <t>Projet Sparnatural, démonstrateur AN : traduction française des libellés et définitions des object properties RiC-O utilisées dans le démonstrateur.</t>
-  </si>
-  <si>
     <t>Ce fichier peut être converti en RDF avec le convertisseur SKOS Play en ligne : https://skos-play.sparna.fr/play/convert</t>
   </si>
   <si>
@@ -2106,15 +2103,9 @@
     <t>a pour type d’ensemble de documents</t>
   </si>
   <si>
-    <t>est l’instantiation dérivée de</t>
-  </si>
-  <si>
     <t>est associée à l’instantiation</t>
   </si>
   <si>
-    <t>est l’instantiation de</t>
-  </si>
-  <si>
     <t>est ou était l’appellation de</t>
   </si>
   <si>
@@ -2221,13 +2212,247 @@
   </si>
   <si>
     <t>est la source de la relation d’appartenance</t>
+  </si>
+  <si>
+    <t>rico:authorizedBy</t>
+  </si>
+  <si>
+    <t>rico:authorizes</t>
+  </si>
+  <si>
+    <t>rico:hasFamilyAssociationWith</t>
+  </si>
+  <si>
+    <t>rico:hasOrHadIdentifier</t>
+  </si>
+  <si>
+    <t>rico:hasOrHadMember</t>
+  </si>
+  <si>
+    <t>rico:hasOrHadSomeMembersWithCategory</t>
+  </si>
+  <si>
+    <t>rico:hasOrHadSomeMembersWithRecordState</t>
+  </si>
+  <si>
+    <t>rico:isAgentAssociatedWithAgent</t>
+  </si>
+  <si>
+    <t>rico:isOrWasAdjacentTo</t>
+  </si>
+  <si>
+    <t>rico:isOrWasCategoryOfSomeMembersOf</t>
+  </si>
+  <si>
+    <t>rico:isOrWasRecordStateOfSomeMembersOf</t>
+  </si>
+  <si>
+    <t>rico:isSuccessorOf</t>
+  </si>
+  <si>
+    <t>rico:isOrWasIdentifierOf</t>
+  </si>
+  <si>
+    <t>rico:hasSuccessor</t>
+  </si>
+  <si>
+    <t>rico:isOrWasMemberOf</t>
+  </si>
+  <si>
+    <t>authorizedBy</t>
+  </si>
+  <si>
+    <t>authorizes</t>
+  </si>
+  <si>
+    <t>hasFamilyAssociationWith</t>
+  </si>
+  <si>
+    <t>authorized by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">authorizes </t>
+  </si>
+  <si>
+    <t>has successor</t>
+  </si>
+  <si>
+    <t>isOrWasRecordStateOfSomeMembers of</t>
+  </si>
+  <si>
+    <t>Connects a Mandate to the Agent that the Mandate gives the authority or competencies to act.</t>
+  </si>
+  <si>
+    <t>Inverse of 'authorizes' object property</t>
+  </si>
+  <si>
+    <t>autorise</t>
+  </si>
+  <si>
+    <t>autorisé par</t>
+  </si>
+  <si>
+    <t>has family association with</t>
+  </si>
+  <si>
+    <t>Connects two Persons that have some type of family link, i.e. belong to the same family. This relation is symmetric.</t>
+  </si>
+  <si>
+    <t>est lié à la relation familiale</t>
+  </si>
+  <si>
+    <t>hasOrHadIdentifier</t>
+  </si>
+  <si>
+    <t>hasOrHadMember</t>
+  </si>
+  <si>
+    <t>hasOrHadSomeMembersWithCategory</t>
+  </si>
+  <si>
+    <t>hasOrHadSomeMembersWithRecordState</t>
+  </si>
+  <si>
+    <t>has or had identifier</t>
+  </si>
+  <si>
+    <t>a ou a eu pour identifiant</t>
+  </si>
+  <si>
+    <t>has or had member</t>
+  </si>
+  <si>
+    <t>a ou a eu pour membre</t>
+  </si>
+  <si>
+    <t>has or had some members with category</t>
+  </si>
+  <si>
+    <t>inclut ou a inclus des ressources ayant pour catégorie</t>
+  </si>
+  <si>
+    <t>inclut ou a inclus des ressources ayant pour état</t>
+  </si>
+  <si>
+    <t>has or had some members with record state</t>
+  </si>
+  <si>
+    <t>Connects a Thing to one of its past or present Identifiers.</t>
+  </si>
+  <si>
+    <t>Connects a Group to a Person that is or was a member of that Group.</t>
+  </si>
+  <si>
+    <t>Connects a Record Set and a Category (Type) to which some of the Records or Record Parts that are or were included in the Record Set belong.</t>
+  </si>
+  <si>
+    <t>Connects a Record Set and a Record State that categorizes some of the Records or Record Parts that are or were included in the Record Set.</t>
+  </si>
+  <si>
+    <t>hasSuccessor</t>
+  </si>
+  <si>
+    <t>isAgentAssociatedWithAgent</t>
+  </si>
+  <si>
+    <t>isOrWasAdjacentTo</t>
+  </si>
+  <si>
+    <t>isOrWasCategoryOfSomeMembersOf</t>
+  </si>
+  <si>
+    <t>a pour successeur</t>
+  </si>
+  <si>
+    <t>Connects an Agent to another Agent that succeeds it chronologically.</t>
+  </si>
+  <si>
+    <t>is agent associated with agent</t>
+  </si>
+  <si>
+    <t>Connects two Agents. This object property is symmetric.</t>
+  </si>
+  <si>
+    <t>est associé à l’agent</t>
+  </si>
+  <si>
+    <t>is or was adjacent to</t>
+  </si>
+  <si>
+    <t>Connects two Places that are or were geographically adjacent. This is a symmetric object property.</t>
+  </si>
+  <si>
+    <t>est ou a été adjacent à</t>
+  </si>
+  <si>
+    <t>is or was category of some members of</t>
+  </si>
+  <si>
+    <t>est ou était la catégorie de certains membres de</t>
+  </si>
+  <si>
+    <t>Connects a Category (Type) and a Record Set whose some present or past Record or Record Part members belong to that Category.</t>
+  </si>
+  <si>
+    <t>isOrWasIdentifierOf</t>
+  </si>
+  <si>
+    <t>is or was identifier of</t>
+  </si>
+  <si>
+    <t>est ou était l’identifiant de</t>
+  </si>
+  <si>
+    <t>est une instantiation de</t>
+  </si>
+  <si>
+    <t>est une instantiation dérivée de</t>
+  </si>
+  <si>
+    <t>Connects an Identifier to a Thing that it identified or identifies.</t>
+  </si>
+  <si>
+    <t>isOrWasMemberOf</t>
+  </si>
+  <si>
+    <t>is or was member of</t>
+  </si>
+  <si>
+    <t>est ou était membre de</t>
+  </si>
+  <si>
+    <t>Inverse of 'has or had member' object property.</t>
+  </si>
+  <si>
+    <t>isOrWasRecordStateOfSomeMembersOf</t>
+  </si>
+  <si>
+    <t>Connects a Record State and a Record Set whose some past or present Record or Record Part members have that Record State.</t>
+  </si>
+  <si>
+    <t>est ou était l’état de certains documents inclus dans</t>
+  </si>
+  <si>
+    <t>isSuccessorOf</t>
+  </si>
+  <si>
+    <t>is successor of</t>
+  </si>
+  <si>
+    <t>est le successeur de</t>
+  </si>
+  <si>
+    <t>Inverse of 'has successor' object property.</t>
+  </si>
+  <si>
+    <t>Projet Sparnatural, démonstrateur AN : traduction française des libellés et définitions des object properties RiC-O utilisées dans le démonstrateur. Revu le 10 juin 2022 après le chargement d'une nouvelle version des données RDF dans le triplestore.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2284,25 +2509,26 @@
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEE6EF"/>
-        <bgColor rgb="FFDEE6EF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -2360,55 +2586,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2622,4985 +2854,5241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y948"/>
+  <dimension ref="A1:Y963"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A103" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="46.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34" customWidth="1"/>
-    <col min="3" max="3" width="45.140625" customWidth="1"/>
-    <col min="4" max="4" width="69.7109375" customWidth="1"/>
-    <col min="5" max="5" width="103.5703125" customWidth="1"/>
-    <col min="6" max="26" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="69.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="103.5703125" style="3" customWidth="1"/>
+    <col min="6" max="26" width="10.7109375" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="12.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:25" ht="12.75" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:25" ht="22.5" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:25" ht="18.75" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" ht="18.75" customHeight="1">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" ht="31.5" customHeight="1">
+      <c r="B7" s="11"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" ht="13.5" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:25" ht="31.5" customHeight="1">
-      <c r="B7" s="7"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" ht="13.5" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+    </row>
+    <row r="9" spans="1:25" ht="12.75" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-    </row>
-    <row r="9" spans="1:25" ht="12.75" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="12.75" customHeight="1">
+      <c r="A10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="12.75" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="B10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="12" t="s">
+    </row>
+    <row r="11" spans="1:25" ht="12.75" customHeight="1">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" ht="12.75" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="12" t="s">
+    </row>
+    <row r="12" spans="1:25" ht="18.75" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="12" t="s">
+    </row>
+    <row r="13" spans="1:25" ht="18.75" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="12" t="s">
+    </row>
+    <row r="14" spans="1:25" ht="31.5" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" ht="31.5" customHeight="1">
-      <c r="A14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="12" t="s">
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="12" t="s">
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="E16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="12" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="E17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="12" t="s">
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="E18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="12" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="D19" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="E19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="12" t="s">
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="E20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="12" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="D21" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="E21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="12" t="s">
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="D22" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="E22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="12" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="D23" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="E23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="12" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>754</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="20" t="s">
+        <v>730</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>745</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>748</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>753</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="D26" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="E26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="12" t="s">
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C27" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="D27" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="E27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="12" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="D28" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="E28" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="B29" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>755</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>532</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="12" t="s">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>758</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>762</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="12" t="s">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A55" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A56" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A31" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>731</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A34" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A35" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A37" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D38" s="16" t="s">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A57" s="20" t="s">
+        <v>733</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>764</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D59" s="19" t="s">
         <v>690</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A39" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A41" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A42" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A44" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A45" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A46" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A47" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A48" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="E48" s="12" t="s">
+      <c r="E59" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A62" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A63" s="20" t="s">
+        <v>734</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>766</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>767</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A65" s="20" t="s">
+        <v>735</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>761</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A66" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A67" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A68" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A69" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A71" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A72" s="20" t="s">
+        <v>742</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A73" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A74" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A75" s="20" t="s">
+        <v>736</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>775</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>780</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>782</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A76" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A49" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A50" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="E50" s="12" t="s">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A77" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A51" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A52" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="E52" s="12" t="s">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A78" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A53" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A54" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>691</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A55" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C55" s="12" t="s">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A79" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A80" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A81" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A82" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A83" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A84" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A85" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A86" s="20" t="s">
+        <v>737</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>785</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A87" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A88" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A89" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A90" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D90" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A91" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A92" s="20" t="s">
+        <v>738</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>787</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A93" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A94" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D94" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A95" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A96" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D96" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A97" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D97" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A98" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A99" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>790</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>791</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A100" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D100" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A101" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D101" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A102" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D102" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A103" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D103" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A104" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D104" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A105" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A106" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A107" s="20" t="s">
+        <v>743</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>796</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>797</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A108" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D108" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A109" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A110" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D110" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="D55" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A56" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A57" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A58" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A59" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A60" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A61" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A62" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A63" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>692</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A64" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A65" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A66" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D66" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A67" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="D67" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A68" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A69" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="D69" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A70" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A71" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A72" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D72" s="16" t="s">
-        <v>693</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A73" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A74" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A75" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C75" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>694</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A76" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C76" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D76" s="16" t="s">
+      <c r="E110" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A111" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D111" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A112" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D112" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A113" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A114" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D114" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="E76" s="12" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A77" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A78" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A79" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D79" s="16" t="s">
+      <c r="E114" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A115" s="20" t="s">
+        <v>739</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="C115" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="E115" s="22" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A116" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D116" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A117" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A118" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D118" s="19" t="s">
         <v>696</v>
       </c>
-      <c r="E79" s="12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A80" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A81" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="D81" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A82" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="D82" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A83" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="D83" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A84" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="D84" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A85" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C85" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A86" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A87" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A88" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="D88" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A89" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C89" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="D89" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A90" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="C90" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A91" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="D91" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A92" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="D92" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A93" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A94" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="D94" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A95" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A96" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="C96" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="D96" s="16" t="s">
+      <c r="E118" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A119" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B119" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D119" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A120" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D120" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A121" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D121" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A122" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D122" s="19" t="s">
         <v>697</v>
       </c>
-      <c r="E96" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A97" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="D97" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A98" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="D98" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A99" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="D99" s="16" t="s">
-        <v>431</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A100" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="C100" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A101" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="D101" s="16" t="s">
+      <c r="E122" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A123" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D123" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A124" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D124" s="19" t="s">
         <v>698</v>
       </c>
-      <c r="E101" s="12" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A102" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="D102" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A103" s="12" t="s">
-        <v>446</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="E103" s="12" t="s">
+      <c r="E124" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A125" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A126" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D126" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A127" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D127" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A128" s="20" t="s">
+        <v>740</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>803</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>804</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A129" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D129" s="19" t="s">
+        <v>495</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A130" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B130" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D130" s="19" t="s">
+        <v>500</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A131" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A132" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B132" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A133" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D133" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A134" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D134" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A135" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D135" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A136" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B136" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D136" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A104" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>699</v>
-      </c>
-      <c r="E104" s="12" t="s">
+    <row r="137" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A137" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>757</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A138" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D138" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A139" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D139" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A140" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D140" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A141" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D141" s="19" t="s">
+        <v>551</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A142" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B142" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D142" s="19" t="s">
+        <v>556</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A143" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D143" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A144" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B144" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D144" s="19" t="s">
+        <v>566</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A145" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D145" s="19" t="s">
+        <v>571</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A146" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A147" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A148" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B148" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D148" s="19" t="s">
+        <v>586</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A149" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D149" s="19" t="s">
+        <v>591</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A150" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A151" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B151" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D151" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A152" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>604</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D152" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A105" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="D105" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="E105" s="12" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A106" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="E106" s="12" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A107" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="D107" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="E107" s="12" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A108" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="D108" s="16" t="s">
-        <v>700</v>
-      </c>
-      <c r="E108" s="12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A109" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="D109" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A110" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>701</v>
-      </c>
-      <c r="E110" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A111" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>702</v>
-      </c>
-      <c r="E111" s="12" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A112" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A113" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>491</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A114" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="D114" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A115" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="D115" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="E115" s="12" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A116" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>506</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A117" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>703</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A118" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="D118" s="16" t="s">
-        <v>704</v>
-      </c>
-      <c r="E118" s="12" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A119" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="D119" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="E119" s="12" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A120" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="D120" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="E120" s="12" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A121" s="12" t="s">
-        <v>526</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A122" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="D122" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="E122" s="12" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A123" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>537</v>
-      </c>
-      <c r="D123" s="16" t="s">
-        <v>705</v>
-      </c>
-      <c r="E123" s="12" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A124" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="C124" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>542</v>
-      </c>
-      <c r="E124" s="12" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A125" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="D125" s="16" t="s">
-        <v>547</v>
-      </c>
-      <c r="E125" s="12" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A126" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>550</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="D126" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="E126" s="12" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A127" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="D127" s="16" t="s">
-        <v>557</v>
-      </c>
-      <c r="E127" s="12" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A128" s="12" t="s">
-        <v>559</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="D128" s="16" t="s">
-        <v>562</v>
-      </c>
-      <c r="E128" s="12" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A129" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="D129" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="E129" s="12" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A130" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="D130" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="E130" s="12" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A131" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="D131" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="E131" s="12" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A132" s="12" t="s">
-        <v>579</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="D132" s="16" t="s">
-        <v>582</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A133" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="D133" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="E133" s="12" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A134" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="D134" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="E134" s="12" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A135" s="12" t="s">
-        <v>594</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>596</v>
-      </c>
-      <c r="D135" s="16" t="s">
-        <v>597</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A136" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="D136" s="16" t="s">
-        <v>602</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A137" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="D137" s="16" t="s">
+    <row r="153" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A153" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E137" s="12" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A138" s="12" t="s">
+      <c r="B153" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="C153" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="D153" s="19" t="s">
         <v>610</v>
       </c>
-      <c r="D138" s="16" t="s">
+      <c r="E153" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="E138" s="12" t="s">
+    </row>
+    <row r="154" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A154" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A139" s="12" t="s">
+      <c r="B154" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="C154" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="D154" s="19" t="s">
         <v>615</v>
       </c>
-      <c r="D139" s="16" t="s">
+      <c r="E154" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E139" s="12" t="s">
+    </row>
+    <row r="155" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A155" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A140" s="12" t="s">
+      <c r="B155" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="C155" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="D155" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="D140" s="16" t="s">
+      <c r="E155" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="E140" s="12" t="s">
+    </row>
+    <row r="156" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A156" s="1" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A141" s="12" t="s">
+      <c r="B156" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="C156" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C141" s="12" t="s">
+      <c r="D156" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="D141" s="16" t="s">
+      <c r="E156" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="E141" s="12" t="s">
+    </row>
+    <row r="157" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A157" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A142" s="12" t="s">
+      <c r="B157" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="C157" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C142" s="12" t="s">
+      <c r="D157" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="D142" s="16" t="s">
+      <c r="E157" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="E142" s="12" t="s">
+    </row>
+    <row r="158" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A158" s="1" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A143" s="12" t="s">
+      <c r="B158" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="C158" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="D158" s="19" t="s">
         <v>635</v>
       </c>
-      <c r="D143" s="16" t="s">
+      <c r="E158" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="E143" s="12" t="s">
+    </row>
+    <row r="159" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A159" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A144" s="12" t="s">
+      <c r="B159" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="C159" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="D159" s="19" t="s">
         <v>640</v>
       </c>
-      <c r="D144" s="16" t="s">
+      <c r="E159" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="E144" s="12" t="s">
+    </row>
+    <row r="160" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A160" s="1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A145" s="12" t="s">
+      <c r="B160" s="11" t="s">
         <v>643</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="C160" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="D160" s="19" t="s">
         <v>645</v>
       </c>
-      <c r="D145" s="16" t="s">
+      <c r="E160" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="E145" s="12" t="s">
+    </row>
+    <row r="161" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A161" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A146" s="12" t="s">
+      <c r="B161" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="C161" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="D161" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="D146" s="16" t="s">
+      <c r="E161" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="E146" s="12" t="s">
+    </row>
+    <row r="162" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A162" s="1" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A147" s="12" t="s">
+      <c r="B162" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="C162" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="D162" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="D147" s="16" t="s">
+      <c r="E162" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="E147" s="12" t="s">
+    </row>
+    <row r="163" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A163" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A148" s="12" t="s">
+      <c r="B163" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="C163" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="D163" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="D148" s="16" t="s">
+      <c r="E163" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="E148" s="12" t="s">
+    </row>
+    <row r="164" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A164" s="1" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A149" s="12" t="s">
+      <c r="B164" s="11" t="s">
         <v>663</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="C164" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="D164" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="D149" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E149" s="12" t="s">
+    </row>
+    <row r="165" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A165" s="1" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A150" s="12" t="s">
+      <c r="B165" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="C165" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="D165" s="19" t="s">
         <v>669</v>
       </c>
-      <c r="D150" s="16" t="s">
+      <c r="E165" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="E150" s="12" t="s">
+    </row>
+    <row r="166" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A166" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A151" s="12" t="s">
+      <c r="B166" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="C166" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="D166" s="19" t="s">
         <v>674</v>
       </c>
-      <c r="D151" s="16" t="s">
+      <c r="E166" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A167" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="E151" s="12" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A152" s="12" t="s">
+      <c r="B167" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="C167" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="D167" s="19" t="s">
         <v>678</v>
       </c>
-      <c r="D152" s="16" t="s">
+      <c r="E167" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="E152" s="12" t="s">
+    </row>
+    <row r="168" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A168" s="1" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A153" s="12" t="s">
+      <c r="B168" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="C168" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="D168" s="19" t="s">
         <v>683</v>
       </c>
-      <c r="D153" s="16" t="s">
+      <c r="E168" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="E153" s="12" t="s">
+    </row>
+    <row r="169" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A169" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A154" s="12" t="s">
+      <c r="B169" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="C169" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="D169" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="D154" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E154" s="12" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B155" s="7"/>
-    </row>
-    <row r="156" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B156" s="7"/>
-    </row>
-    <row r="157" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B157" s="7"/>
-    </row>
-    <row r="158" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B158" s="7"/>
-    </row>
-    <row r="159" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B159" s="7"/>
-    </row>
-    <row r="160" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B160" s="7"/>
-    </row>
-    <row r="161" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B161" s="7"/>
-    </row>
-    <row r="162" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B162" s="7"/>
-    </row>
-    <row r="163" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B163" s="7"/>
-    </row>
-    <row r="164" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B164" s="7"/>
-    </row>
-    <row r="165" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B165" s="7"/>
-    </row>
-    <row r="166" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B166" s="7"/>
-    </row>
-    <row r="167" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B167" s="7"/>
-    </row>
-    <row r="168" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B168" s="7"/>
-    </row>
-    <row r="169" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B169" s="7"/>
-    </row>
-    <row r="170" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B170" s="7"/>
-    </row>
-    <row r="171" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B171" s="7"/>
-    </row>
-    <row r="172" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B172" s="7"/>
-    </row>
-    <row r="173" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B173" s="7"/>
-    </row>
-    <row r="174" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B174" s="7"/>
-    </row>
-    <row r="175" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B175" s="7"/>
-    </row>
-    <row r="176" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B176" s="7"/>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B170" s="11"/>
+    </row>
+    <row r="171" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B171" s="11"/>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B172" s="11"/>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B173" s="11"/>
+    </row>
+    <row r="174" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B174" s="11"/>
+    </row>
+    <row r="175" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B175" s="11"/>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" customHeight="1">
+      <c r="B176" s="11"/>
     </row>
     <row r="177" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B177" s="7"/>
+      <c r="B177" s="11"/>
     </row>
     <row r="178" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B178" s="7"/>
+      <c r="B178" s="11"/>
     </row>
     <row r="179" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B179" s="7"/>
+      <c r="B179" s="11"/>
     </row>
     <row r="180" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B180" s="7"/>
+      <c r="B180" s="11"/>
     </row>
     <row r="181" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B181" s="7"/>
+      <c r="B181" s="11"/>
     </row>
     <row r="182" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B182" s="7"/>
+      <c r="B182" s="11"/>
     </row>
     <row r="183" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B183" s="7"/>
+      <c r="B183" s="11"/>
     </row>
     <row r="184" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B184" s="7"/>
+      <c r="B184" s="11"/>
     </row>
     <row r="185" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B185" s="7"/>
+      <c r="B185" s="11"/>
     </row>
     <row r="186" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B186" s="7"/>
+      <c r="B186" s="11"/>
     </row>
     <row r="187" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B187" s="7"/>
+      <c r="B187" s="11"/>
     </row>
     <row r="188" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B188" s="7"/>
+      <c r="B188" s="11"/>
     </row>
     <row r="189" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B189" s="7"/>
+      <c r="B189" s="11"/>
     </row>
     <row r="190" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B190" s="7"/>
+      <c r="B190" s="11"/>
     </row>
     <row r="191" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B191" s="7"/>
+      <c r="B191" s="11"/>
     </row>
     <row r="192" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B192" s="7"/>
+      <c r="B192" s="11"/>
     </row>
     <row r="193" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B193" s="7"/>
+      <c r="B193" s="11"/>
     </row>
     <row r="194" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B194" s="7"/>
+      <c r="B194" s="11"/>
     </row>
     <row r="195" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B195" s="7"/>
+      <c r="B195" s="11"/>
     </row>
     <row r="196" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B196" s="7"/>
+      <c r="B196" s="11"/>
     </row>
     <row r="197" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B197" s="7"/>
+      <c r="B197" s="11"/>
     </row>
     <row r="198" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B198" s="7"/>
+      <c r="B198" s="11"/>
     </row>
     <row r="199" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B199" s="7"/>
+      <c r="B199" s="11"/>
     </row>
     <row r="200" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B200" s="7"/>
+      <c r="B200" s="11"/>
     </row>
     <row r="201" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B201" s="7"/>
+      <c r="B201" s="11"/>
     </row>
     <row r="202" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B202" s="7"/>
+      <c r="B202" s="11"/>
     </row>
     <row r="203" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B203" s="7"/>
+      <c r="B203" s="11"/>
     </row>
     <row r="204" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B204" s="7"/>
+      <c r="B204" s="11"/>
     </row>
     <row r="205" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B205" s="7"/>
+      <c r="B205" s="11"/>
     </row>
     <row r="206" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B206" s="7"/>
+      <c r="B206" s="11"/>
     </row>
     <row r="207" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B207" s="7"/>
+      <c r="B207" s="11"/>
     </row>
     <row r="208" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B208" s="7"/>
+      <c r="B208" s="11"/>
     </row>
     <row r="209" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B209" s="7"/>
+      <c r="B209" s="11"/>
     </row>
     <row r="210" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B210" s="7"/>
+      <c r="B210" s="11"/>
     </row>
     <row r="211" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B211" s="7"/>
+      <c r="B211" s="11"/>
     </row>
     <row r="212" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B212" s="7"/>
+      <c r="B212" s="11"/>
     </row>
     <row r="213" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B213" s="7"/>
+      <c r="B213" s="11"/>
     </row>
     <row r="214" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B214" s="7"/>
+      <c r="B214" s="11"/>
     </row>
     <row r="215" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B215" s="7"/>
+      <c r="B215" s="11"/>
     </row>
     <row r="216" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B216" s="7"/>
+      <c r="B216" s="11"/>
     </row>
     <row r="217" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B217" s="7"/>
+      <c r="B217" s="11"/>
     </row>
     <row r="218" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B218" s="7"/>
+      <c r="B218" s="11"/>
     </row>
     <row r="219" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B219" s="7"/>
+      <c r="B219" s="11"/>
     </row>
     <row r="220" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B220" s="7"/>
+      <c r="B220" s="11"/>
     </row>
     <row r="221" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B221" s="7"/>
+      <c r="B221" s="11"/>
     </row>
     <row r="222" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B222" s="7"/>
+      <c r="B222" s="11"/>
     </row>
     <row r="223" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B223" s="7"/>
+      <c r="B223" s="11"/>
     </row>
     <row r="224" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B224" s="7"/>
+      <c r="B224" s="11"/>
     </row>
     <row r="225" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B225" s="7"/>
+      <c r="B225" s="11"/>
     </row>
     <row r="226" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B226" s="7"/>
+      <c r="B226" s="11"/>
     </row>
     <row r="227" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B227" s="7"/>
+      <c r="B227" s="11"/>
     </row>
     <row r="228" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B228" s="7"/>
+      <c r="B228" s="11"/>
     </row>
     <row r="229" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B229" s="7"/>
+      <c r="B229" s="11"/>
     </row>
     <row r="230" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B230" s="7"/>
+      <c r="B230" s="11"/>
     </row>
     <row r="231" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B231" s="7"/>
+      <c r="B231" s="11"/>
     </row>
     <row r="232" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B232" s="7"/>
+      <c r="B232" s="11"/>
     </row>
     <row r="233" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B233" s="7"/>
+      <c r="B233" s="11"/>
     </row>
     <row r="234" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B234" s="7"/>
+      <c r="B234" s="11"/>
     </row>
     <row r="235" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B235" s="7"/>
+      <c r="B235" s="11"/>
     </row>
     <row r="236" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B236" s="7"/>
+      <c r="B236" s="11"/>
     </row>
     <row r="237" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B237" s="7"/>
+      <c r="B237" s="11"/>
     </row>
     <row r="238" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B238" s="7"/>
+      <c r="B238" s="11"/>
     </row>
     <row r="239" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B239" s="7"/>
+      <c r="B239" s="11"/>
     </row>
     <row r="240" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B240" s="7"/>
+      <c r="B240" s="11"/>
     </row>
     <row r="241" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B241" s="7"/>
+      <c r="B241" s="11"/>
     </row>
     <row r="242" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B242" s="7"/>
+      <c r="B242" s="11"/>
     </row>
     <row r="243" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B243" s="7"/>
+      <c r="B243" s="11"/>
     </row>
     <row r="244" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B244" s="7"/>
+      <c r="B244" s="11"/>
     </row>
     <row r="245" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B245" s="7"/>
+      <c r="B245" s="11"/>
     </row>
     <row r="246" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B246" s="7"/>
+      <c r="B246" s="11"/>
     </row>
     <row r="247" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B247" s="7"/>
+      <c r="B247" s="11"/>
     </row>
     <row r="248" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B248" s="7"/>
+      <c r="B248" s="11"/>
     </row>
     <row r="249" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B249" s="7"/>
+      <c r="B249" s="11"/>
     </row>
     <row r="250" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B250" s="7"/>
+      <c r="B250" s="11"/>
     </row>
     <row r="251" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B251" s="7"/>
+      <c r="B251" s="11"/>
     </row>
     <row r="252" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B252" s="7"/>
+      <c r="B252" s="11"/>
     </row>
     <row r="253" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B253" s="7"/>
+      <c r="B253" s="11"/>
     </row>
     <row r="254" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B254" s="7"/>
+      <c r="B254" s="11"/>
     </row>
     <row r="255" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B255" s="7"/>
+      <c r="B255" s="11"/>
     </row>
     <row r="256" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B256" s="7"/>
+      <c r="B256" s="11"/>
     </row>
     <row r="257" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B257" s="7"/>
+      <c r="B257" s="11"/>
     </row>
     <row r="258" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B258" s="7"/>
+      <c r="B258" s="11"/>
     </row>
     <row r="259" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B259" s="7"/>
+      <c r="B259" s="11"/>
     </row>
     <row r="260" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B260" s="7"/>
+      <c r="B260" s="11"/>
     </row>
     <row r="261" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B261" s="7"/>
+      <c r="B261" s="11"/>
     </row>
     <row r="262" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B262" s="7"/>
+      <c r="B262" s="11"/>
     </row>
     <row r="263" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B263" s="7"/>
+      <c r="B263" s="11"/>
     </row>
     <row r="264" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B264" s="7"/>
+      <c r="B264" s="11"/>
     </row>
     <row r="265" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B265" s="7"/>
+      <c r="B265" s="11"/>
     </row>
     <row r="266" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B266" s="7"/>
+      <c r="B266" s="11"/>
     </row>
     <row r="267" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B267" s="7"/>
+      <c r="B267" s="11"/>
     </row>
     <row r="268" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B268" s="7"/>
+      <c r="B268" s="11"/>
     </row>
     <row r="269" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B269" s="7"/>
+      <c r="B269" s="11"/>
     </row>
     <row r="270" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B270" s="7"/>
+      <c r="B270" s="11"/>
     </row>
     <row r="271" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B271" s="7"/>
+      <c r="B271" s="11"/>
     </row>
     <row r="272" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B272" s="7"/>
+      <c r="B272" s="11"/>
     </row>
     <row r="273" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B273" s="7"/>
+      <c r="B273" s="11"/>
     </row>
     <row r="274" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B274" s="7"/>
+      <c r="B274" s="11"/>
     </row>
     <row r="275" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B275" s="7"/>
+      <c r="B275" s="11"/>
     </row>
     <row r="276" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B276" s="7"/>
+      <c r="B276" s="11"/>
     </row>
     <row r="277" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B277" s="7"/>
+      <c r="B277" s="11"/>
     </row>
     <row r="278" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B278" s="7"/>
+      <c r="B278" s="11"/>
     </row>
     <row r="279" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B279" s="7"/>
+      <c r="B279" s="11"/>
     </row>
     <row r="280" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B280" s="7"/>
+      <c r="B280" s="11"/>
     </row>
     <row r="281" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B281" s="7"/>
+      <c r="B281" s="11"/>
     </row>
     <row r="282" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B282" s="7"/>
+      <c r="B282" s="11"/>
     </row>
     <row r="283" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B283" s="7"/>
+      <c r="B283" s="11"/>
     </row>
     <row r="284" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B284" s="7"/>
+      <c r="B284" s="11"/>
     </row>
     <row r="285" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B285" s="7"/>
+      <c r="B285" s="11"/>
     </row>
     <row r="286" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B286" s="7"/>
+      <c r="B286" s="11"/>
     </row>
     <row r="287" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B287" s="7"/>
+      <c r="B287" s="11"/>
     </row>
     <row r="288" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B288" s="7"/>
+      <c r="B288" s="11"/>
     </row>
     <row r="289" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B289" s="7"/>
+      <c r="B289" s="11"/>
     </row>
     <row r="290" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B290" s="7"/>
+      <c r="B290" s="11"/>
     </row>
     <row r="291" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B291" s="7"/>
+      <c r="B291" s="11"/>
     </row>
     <row r="292" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B292" s="7"/>
+      <c r="B292" s="11"/>
     </row>
     <row r="293" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B293" s="7"/>
+      <c r="B293" s="11"/>
     </row>
     <row r="294" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B294" s="7"/>
+      <c r="B294" s="11"/>
     </row>
     <row r="295" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B295" s="7"/>
+      <c r="B295" s="11"/>
     </row>
     <row r="296" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B296" s="7"/>
+      <c r="B296" s="11"/>
     </row>
     <row r="297" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B297" s="7"/>
+      <c r="B297" s="11"/>
     </row>
     <row r="298" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B298" s="7"/>
+      <c r="B298" s="11"/>
     </row>
     <row r="299" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B299" s="7"/>
+      <c r="B299" s="11"/>
     </row>
     <row r="300" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B300" s="7"/>
+      <c r="B300" s="11"/>
     </row>
     <row r="301" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B301" s="7"/>
+      <c r="B301" s="11"/>
     </row>
     <row r="302" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B302" s="7"/>
+      <c r="B302" s="11"/>
     </row>
     <row r="303" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B303" s="7"/>
+      <c r="B303" s="11"/>
     </row>
     <row r="304" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B304" s="7"/>
+      <c r="B304" s="11"/>
     </row>
     <row r="305" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B305" s="7"/>
+      <c r="B305" s="11"/>
     </row>
     <row r="306" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B306" s="7"/>
+      <c r="B306" s="11"/>
     </row>
     <row r="307" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B307" s="7"/>
+      <c r="B307" s="11"/>
     </row>
     <row r="308" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B308" s="7"/>
+      <c r="B308" s="11"/>
     </row>
     <row r="309" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B309" s="7"/>
+      <c r="B309" s="11"/>
     </row>
     <row r="310" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B310" s="7"/>
+      <c r="B310" s="11"/>
     </row>
     <row r="311" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B311" s="7"/>
+      <c r="B311" s="11"/>
     </row>
     <row r="312" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B312" s="7"/>
+      <c r="B312" s="11"/>
     </row>
     <row r="313" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B313" s="7"/>
+      <c r="B313" s="11"/>
     </row>
     <row r="314" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B314" s="7"/>
+      <c r="B314" s="11"/>
     </row>
     <row r="315" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B315" s="7"/>
+      <c r="B315" s="11"/>
     </row>
     <row r="316" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B316" s="7"/>
+      <c r="B316" s="11"/>
     </row>
     <row r="317" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B317" s="7"/>
+      <c r="B317" s="11"/>
     </row>
     <row r="318" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B318" s="7"/>
+      <c r="B318" s="11"/>
     </row>
     <row r="319" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B319" s="7"/>
+      <c r="B319" s="11"/>
     </row>
     <row r="320" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B320" s="7"/>
+      <c r="B320" s="11"/>
     </row>
     <row r="321" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B321" s="7"/>
+      <c r="B321" s="11"/>
     </row>
     <row r="322" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B322" s="7"/>
+      <c r="B322" s="11"/>
     </row>
     <row r="323" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B323" s="7"/>
+      <c r="B323" s="11"/>
     </row>
     <row r="324" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B324" s="7"/>
+      <c r="B324" s="11"/>
     </row>
     <row r="325" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B325" s="7"/>
+      <c r="B325" s="11"/>
     </row>
     <row r="326" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B326" s="7"/>
+      <c r="B326" s="11"/>
     </row>
     <row r="327" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B327" s="7"/>
+      <c r="B327" s="11"/>
     </row>
     <row r="328" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B328" s="7"/>
+      <c r="B328" s="11"/>
     </row>
     <row r="329" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B329" s="7"/>
+      <c r="B329" s="11"/>
     </row>
     <row r="330" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B330" s="7"/>
+      <c r="B330" s="11"/>
     </row>
     <row r="331" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B331" s="7"/>
+      <c r="B331" s="11"/>
     </row>
     <row r="332" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B332" s="7"/>
+      <c r="B332" s="11"/>
     </row>
     <row r="333" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B333" s="7"/>
+      <c r="B333" s="11"/>
     </row>
     <row r="334" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B334" s="7"/>
+      <c r="B334" s="11"/>
     </row>
     <row r="335" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B335" s="7"/>
+      <c r="B335" s="11"/>
     </row>
     <row r="336" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B336" s="7"/>
+      <c r="B336" s="11"/>
     </row>
     <row r="337" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B337" s="7"/>
+      <c r="B337" s="11"/>
     </row>
     <row r="338" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B338" s="7"/>
+      <c r="B338" s="11"/>
     </row>
     <row r="339" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B339" s="7"/>
+      <c r="B339" s="11"/>
     </row>
     <row r="340" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B340" s="7"/>
+      <c r="B340" s="11"/>
     </row>
     <row r="341" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B341" s="7"/>
+      <c r="B341" s="11"/>
     </row>
     <row r="342" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B342" s="7"/>
+      <c r="B342" s="11"/>
     </row>
     <row r="343" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B343" s="7"/>
+      <c r="B343" s="11"/>
     </row>
     <row r="344" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B344" s="7"/>
+      <c r="B344" s="11"/>
     </row>
     <row r="345" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B345" s="7"/>
+      <c r="B345" s="11"/>
     </row>
     <row r="346" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B346" s="7"/>
+      <c r="B346" s="11"/>
     </row>
     <row r="347" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B347" s="7"/>
+      <c r="B347" s="11"/>
     </row>
     <row r="348" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B348" s="7"/>
+      <c r="B348" s="11"/>
     </row>
     <row r="349" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B349" s="7"/>
+      <c r="B349" s="11"/>
     </row>
     <row r="350" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B350" s="7"/>
+      <c r="B350" s="11"/>
     </row>
     <row r="351" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B351" s="7"/>
+      <c r="B351" s="11"/>
     </row>
     <row r="352" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B352" s="7"/>
+      <c r="B352" s="11"/>
     </row>
     <row r="353" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B353" s="7"/>
+      <c r="B353" s="11"/>
     </row>
     <row r="354" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B354" s="7"/>
+      <c r="B354" s="11"/>
     </row>
     <row r="355" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B355" s="7"/>
+      <c r="B355" s="11"/>
     </row>
     <row r="356" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B356" s="7"/>
+      <c r="B356" s="11"/>
     </row>
     <row r="357" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B357" s="7"/>
+      <c r="B357" s="11"/>
     </row>
     <row r="358" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B358" s="7"/>
+      <c r="B358" s="11"/>
     </row>
     <row r="359" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B359" s="7"/>
+      <c r="B359" s="11"/>
     </row>
     <row r="360" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B360" s="7"/>
+      <c r="B360" s="11"/>
     </row>
     <row r="361" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B361" s="7"/>
+      <c r="B361" s="11"/>
     </row>
     <row r="362" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B362" s="7"/>
+      <c r="B362" s="11"/>
     </row>
     <row r="363" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B363" s="7"/>
+      <c r="B363" s="11"/>
     </row>
     <row r="364" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B364" s="7"/>
+      <c r="B364" s="11"/>
     </row>
     <row r="365" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B365" s="7"/>
+      <c r="B365" s="11"/>
     </row>
     <row r="366" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B366" s="7"/>
+      <c r="B366" s="11"/>
     </row>
     <row r="367" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B367" s="7"/>
+      <c r="B367" s="11"/>
     </row>
     <row r="368" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B368" s="7"/>
+      <c r="B368" s="11"/>
     </row>
     <row r="369" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B369" s="7"/>
+      <c r="B369" s="11"/>
     </row>
     <row r="370" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B370" s="7"/>
+      <c r="B370" s="11"/>
     </row>
     <row r="371" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B371" s="7"/>
+      <c r="B371" s="11"/>
     </row>
     <row r="372" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B372" s="7"/>
+      <c r="B372" s="11"/>
     </row>
     <row r="373" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B373" s="7"/>
+      <c r="B373" s="11"/>
     </row>
     <row r="374" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B374" s="7"/>
+      <c r="B374" s="11"/>
     </row>
     <row r="375" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B375" s="7"/>
+      <c r="B375" s="11"/>
     </row>
     <row r="376" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B376" s="7"/>
+      <c r="B376" s="11"/>
     </row>
     <row r="377" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B377" s="7"/>
+      <c r="B377" s="11"/>
     </row>
     <row r="378" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B378" s="7"/>
+      <c r="B378" s="11"/>
     </row>
     <row r="379" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B379" s="7"/>
+      <c r="B379" s="11"/>
     </row>
     <row r="380" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B380" s="7"/>
+      <c r="B380" s="11"/>
     </row>
     <row r="381" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B381" s="7"/>
+      <c r="B381" s="11"/>
     </row>
     <row r="382" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B382" s="7"/>
+      <c r="B382" s="11"/>
     </row>
     <row r="383" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B383" s="7"/>
+      <c r="B383" s="11"/>
     </row>
     <row r="384" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B384" s="7"/>
+      <c r="B384" s="11"/>
     </row>
     <row r="385" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B385" s="7"/>
+      <c r="B385" s="11"/>
     </row>
     <row r="386" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B386" s="7"/>
+      <c r="B386" s="11"/>
     </row>
     <row r="387" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B387" s="7"/>
+      <c r="B387" s="11"/>
     </row>
     <row r="388" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B388" s="7"/>
+      <c r="B388" s="11"/>
     </row>
     <row r="389" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B389" s="7"/>
+      <c r="B389" s="11"/>
     </row>
     <row r="390" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B390" s="7"/>
+      <c r="B390" s="11"/>
     </row>
     <row r="391" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B391" s="7"/>
+      <c r="B391" s="11"/>
     </row>
     <row r="392" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B392" s="7"/>
+      <c r="B392" s="11"/>
     </row>
     <row r="393" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B393" s="7"/>
+      <c r="B393" s="11"/>
     </row>
     <row r="394" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B394" s="7"/>
+      <c r="B394" s="11"/>
     </row>
     <row r="395" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B395" s="7"/>
+      <c r="B395" s="11"/>
     </row>
     <row r="396" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B396" s="7"/>
+      <c r="B396" s="11"/>
     </row>
     <row r="397" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B397" s="7"/>
+      <c r="B397" s="11"/>
     </row>
     <row r="398" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B398" s="7"/>
+      <c r="B398" s="11"/>
     </row>
     <row r="399" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B399" s="7"/>
+      <c r="B399" s="11"/>
     </row>
     <row r="400" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B400" s="7"/>
+      <c r="B400" s="11"/>
     </row>
     <row r="401" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B401" s="7"/>
+      <c r="B401" s="11"/>
     </row>
     <row r="402" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B402" s="7"/>
+      <c r="B402" s="11"/>
     </row>
     <row r="403" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B403" s="7"/>
+      <c r="B403" s="11"/>
     </row>
     <row r="404" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B404" s="7"/>
+      <c r="B404" s="11"/>
     </row>
     <row r="405" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B405" s="7"/>
+      <c r="B405" s="11"/>
     </row>
     <row r="406" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B406" s="7"/>
+      <c r="B406" s="11"/>
     </row>
     <row r="407" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B407" s="7"/>
+      <c r="B407" s="11"/>
     </row>
     <row r="408" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B408" s="7"/>
+      <c r="B408" s="11"/>
     </row>
     <row r="409" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B409" s="7"/>
+      <c r="B409" s="11"/>
     </row>
     <row r="410" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B410" s="7"/>
+      <c r="B410" s="11"/>
     </row>
     <row r="411" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B411" s="7"/>
+      <c r="B411" s="11"/>
     </row>
     <row r="412" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B412" s="7"/>
+      <c r="B412" s="11"/>
     </row>
     <row r="413" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B413" s="7"/>
+      <c r="B413" s="11"/>
     </row>
     <row r="414" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B414" s="7"/>
+      <c r="B414" s="11"/>
     </row>
     <row r="415" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B415" s="7"/>
+      <c r="B415" s="11"/>
     </row>
     <row r="416" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B416" s="7"/>
+      <c r="B416" s="11"/>
     </row>
     <row r="417" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B417" s="7"/>
+      <c r="B417" s="11"/>
     </row>
     <row r="418" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B418" s="7"/>
+      <c r="B418" s="11"/>
     </row>
     <row r="419" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B419" s="7"/>
+      <c r="B419" s="11"/>
     </row>
     <row r="420" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B420" s="7"/>
+      <c r="B420" s="11"/>
     </row>
     <row r="421" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B421" s="7"/>
+      <c r="B421" s="11"/>
     </row>
     <row r="422" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B422" s="7"/>
+      <c r="B422" s="11"/>
     </row>
     <row r="423" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B423" s="7"/>
+      <c r="B423" s="11"/>
     </row>
     <row r="424" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B424" s="7"/>
+      <c r="B424" s="11"/>
     </row>
     <row r="425" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B425" s="7"/>
+      <c r="B425" s="11"/>
     </row>
     <row r="426" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B426" s="7"/>
+      <c r="B426" s="11"/>
     </row>
     <row r="427" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B427" s="7"/>
+      <c r="B427" s="11"/>
     </row>
     <row r="428" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B428" s="7"/>
+      <c r="B428" s="11"/>
     </row>
     <row r="429" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B429" s="7"/>
+      <c r="B429" s="11"/>
     </row>
     <row r="430" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B430" s="7"/>
+      <c r="B430" s="11"/>
     </row>
     <row r="431" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B431" s="7"/>
+      <c r="B431" s="11"/>
     </row>
     <row r="432" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B432" s="7"/>
+      <c r="B432" s="11"/>
     </row>
     <row r="433" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B433" s="7"/>
+      <c r="B433" s="11"/>
     </row>
     <row r="434" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B434" s="7"/>
+      <c r="B434" s="11"/>
     </row>
     <row r="435" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B435" s="7"/>
+      <c r="B435" s="11"/>
     </row>
     <row r="436" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B436" s="7"/>
+      <c r="B436" s="11"/>
     </row>
     <row r="437" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B437" s="7"/>
+      <c r="B437" s="11"/>
     </row>
     <row r="438" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B438" s="7"/>
+      <c r="B438" s="11"/>
     </row>
     <row r="439" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B439" s="7"/>
+      <c r="B439" s="11"/>
     </row>
     <row r="440" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B440" s="7"/>
+      <c r="B440" s="11"/>
     </row>
     <row r="441" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B441" s="7"/>
+      <c r="B441" s="11"/>
     </row>
     <row r="442" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B442" s="7"/>
+      <c r="B442" s="11"/>
     </row>
     <row r="443" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B443" s="7"/>
+      <c r="B443" s="11"/>
     </row>
     <row r="444" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B444" s="7"/>
+      <c r="B444" s="11"/>
     </row>
     <row r="445" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B445" s="7"/>
+      <c r="B445" s="11"/>
     </row>
     <row r="446" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B446" s="7"/>
+      <c r="B446" s="11"/>
     </row>
     <row r="447" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B447" s="7"/>
+      <c r="B447" s="11"/>
     </row>
     <row r="448" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B448" s="7"/>
+      <c r="B448" s="11"/>
     </row>
     <row r="449" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B449" s="7"/>
+      <c r="B449" s="11"/>
     </row>
     <row r="450" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B450" s="7"/>
+      <c r="B450" s="11"/>
     </row>
     <row r="451" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B451" s="7"/>
+      <c r="B451" s="11"/>
     </row>
     <row r="452" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B452" s="7"/>
+      <c r="B452" s="11"/>
     </row>
     <row r="453" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B453" s="7"/>
+      <c r="B453" s="11"/>
     </row>
     <row r="454" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B454" s="7"/>
+      <c r="B454" s="11"/>
     </row>
     <row r="455" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B455" s="7"/>
+      <c r="B455" s="11"/>
     </row>
     <row r="456" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B456" s="7"/>
+      <c r="B456" s="11"/>
     </row>
     <row r="457" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B457" s="7"/>
+      <c r="B457" s="11"/>
     </row>
     <row r="458" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B458" s="7"/>
+      <c r="B458" s="11"/>
     </row>
     <row r="459" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B459" s="7"/>
+      <c r="B459" s="11"/>
     </row>
     <row r="460" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B460" s="7"/>
+      <c r="B460" s="11"/>
     </row>
     <row r="461" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B461" s="7"/>
+      <c r="B461" s="11"/>
     </row>
     <row r="462" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B462" s="7"/>
+      <c r="B462" s="11"/>
     </row>
     <row r="463" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B463" s="7"/>
+      <c r="B463" s="11"/>
     </row>
     <row r="464" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B464" s="7"/>
+      <c r="B464" s="11"/>
     </row>
     <row r="465" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B465" s="7"/>
+      <c r="B465" s="11"/>
     </row>
     <row r="466" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B466" s="7"/>
+      <c r="B466" s="11"/>
     </row>
     <row r="467" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B467" s="7"/>
+      <c r="B467" s="11"/>
     </row>
     <row r="468" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B468" s="7"/>
+      <c r="B468" s="11"/>
     </row>
     <row r="469" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B469" s="7"/>
+      <c r="B469" s="11"/>
     </row>
     <row r="470" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B470" s="7"/>
+      <c r="B470" s="11"/>
     </row>
     <row r="471" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B471" s="7"/>
+      <c r="B471" s="11"/>
     </row>
     <row r="472" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B472" s="7"/>
+      <c r="B472" s="11"/>
     </row>
     <row r="473" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B473" s="7"/>
+      <c r="B473" s="11"/>
     </row>
     <row r="474" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B474" s="7"/>
+      <c r="B474" s="11"/>
     </row>
     <row r="475" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B475" s="7"/>
+      <c r="B475" s="11"/>
     </row>
     <row r="476" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B476" s="7"/>
+      <c r="B476" s="11"/>
     </row>
     <row r="477" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B477" s="7"/>
+      <c r="B477" s="11"/>
     </row>
     <row r="478" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B478" s="7"/>
+      <c r="B478" s="11"/>
     </row>
     <row r="479" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B479" s="7"/>
+      <c r="B479" s="11"/>
     </row>
     <row r="480" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B480" s="7"/>
+      <c r="B480" s="11"/>
     </row>
     <row r="481" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B481" s="7"/>
+      <c r="B481" s="11"/>
     </row>
     <row r="482" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B482" s="7"/>
+      <c r="B482" s="11"/>
     </row>
     <row r="483" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B483" s="7"/>
+      <c r="B483" s="11"/>
     </row>
     <row r="484" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B484" s="7"/>
+      <c r="B484" s="11"/>
     </row>
     <row r="485" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B485" s="7"/>
+      <c r="B485" s="11"/>
     </row>
     <row r="486" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B486" s="7"/>
+      <c r="B486" s="11"/>
     </row>
     <row r="487" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B487" s="7"/>
+      <c r="B487" s="11"/>
     </row>
     <row r="488" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B488" s="7"/>
+      <c r="B488" s="11"/>
     </row>
     <row r="489" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B489" s="7"/>
+      <c r="B489" s="11"/>
     </row>
     <row r="490" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B490" s="7"/>
+      <c r="B490" s="11"/>
     </row>
     <row r="491" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B491" s="7"/>
+      <c r="B491" s="11"/>
     </row>
     <row r="492" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B492" s="7"/>
+      <c r="B492" s="11"/>
     </row>
     <row r="493" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B493" s="7"/>
+      <c r="B493" s="11"/>
     </row>
     <row r="494" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B494" s="7"/>
+      <c r="B494" s="11"/>
     </row>
     <row r="495" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B495" s="7"/>
+      <c r="B495" s="11"/>
     </row>
     <row r="496" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B496" s="7"/>
+      <c r="B496" s="11"/>
     </row>
     <row r="497" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B497" s="7"/>
+      <c r="B497" s="11"/>
     </row>
     <row r="498" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B498" s="7"/>
+      <c r="B498" s="11"/>
     </row>
     <row r="499" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B499" s="7"/>
+      <c r="B499" s="11"/>
     </row>
     <row r="500" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B500" s="7"/>
+      <c r="B500" s="11"/>
     </row>
     <row r="501" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B501" s="7"/>
+      <c r="B501" s="11"/>
     </row>
     <row r="502" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B502" s="7"/>
+      <c r="B502" s="11"/>
     </row>
     <row r="503" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B503" s="7"/>
+      <c r="B503" s="11"/>
     </row>
     <row r="504" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B504" s="7"/>
+      <c r="B504" s="11"/>
     </row>
     <row r="505" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B505" s="7"/>
+      <c r="B505" s="11"/>
     </row>
     <row r="506" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B506" s="7"/>
+      <c r="B506" s="11"/>
     </row>
     <row r="507" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B507" s="7"/>
+      <c r="B507" s="11"/>
     </row>
     <row r="508" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B508" s="7"/>
+      <c r="B508" s="11"/>
     </row>
     <row r="509" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B509" s="7"/>
+      <c r="B509" s="11"/>
     </row>
     <row r="510" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B510" s="7"/>
+      <c r="B510" s="11"/>
     </row>
     <row r="511" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B511" s="7"/>
+      <c r="B511" s="11"/>
     </row>
     <row r="512" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B512" s="7"/>
+      <c r="B512" s="11"/>
     </row>
     <row r="513" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B513" s="7"/>
+      <c r="B513" s="11"/>
     </row>
     <row r="514" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B514" s="7"/>
+      <c r="B514" s="11"/>
     </row>
     <row r="515" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B515" s="7"/>
+      <c r="B515" s="11"/>
     </row>
     <row r="516" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B516" s="7"/>
+      <c r="B516" s="11"/>
     </row>
     <row r="517" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B517" s="7"/>
+      <c r="B517" s="11"/>
     </row>
     <row r="518" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B518" s="7"/>
+      <c r="B518" s="11"/>
     </row>
     <row r="519" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B519" s="7"/>
+      <c r="B519" s="11"/>
     </row>
     <row r="520" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B520" s="7"/>
+      <c r="B520" s="11"/>
     </row>
     <row r="521" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B521" s="7"/>
+      <c r="B521" s="11"/>
     </row>
     <row r="522" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B522" s="7"/>
+      <c r="B522" s="11"/>
     </row>
     <row r="523" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B523" s="7"/>
+      <c r="B523" s="11"/>
     </row>
     <row r="524" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B524" s="7"/>
+      <c r="B524" s="11"/>
     </row>
     <row r="525" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B525" s="7"/>
+      <c r="B525" s="11"/>
     </row>
     <row r="526" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B526" s="7"/>
+      <c r="B526" s="11"/>
     </row>
     <row r="527" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B527" s="7"/>
+      <c r="B527" s="11"/>
     </row>
     <row r="528" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B528" s="7"/>
+      <c r="B528" s="11"/>
     </row>
     <row r="529" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B529" s="7"/>
+      <c r="B529" s="11"/>
     </row>
     <row r="530" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B530" s="7"/>
+      <c r="B530" s="11"/>
     </row>
     <row r="531" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B531" s="7"/>
+      <c r="B531" s="11"/>
     </row>
     <row r="532" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B532" s="7"/>
+      <c r="B532" s="11"/>
     </row>
     <row r="533" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B533" s="7"/>
+      <c r="B533" s="11"/>
     </row>
     <row r="534" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B534" s="7"/>
+      <c r="B534" s="11"/>
     </row>
     <row r="535" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B535" s="7"/>
+      <c r="B535" s="11"/>
     </row>
     <row r="536" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B536" s="7"/>
+      <c r="B536" s="11"/>
     </row>
     <row r="537" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B537" s="7"/>
+      <c r="B537" s="11"/>
     </row>
     <row r="538" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B538" s="7"/>
+      <c r="B538" s="11"/>
     </row>
     <row r="539" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B539" s="7"/>
+      <c r="B539" s="11"/>
     </row>
     <row r="540" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B540" s="7"/>
+      <c r="B540" s="11"/>
     </row>
     <row r="541" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B541" s="7"/>
+      <c r="B541" s="11"/>
     </row>
     <row r="542" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B542" s="7"/>
+      <c r="B542" s="11"/>
     </row>
     <row r="543" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B543" s="7"/>
+      <c r="B543" s="11"/>
     </row>
     <row r="544" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B544" s="7"/>
+      <c r="B544" s="11"/>
     </row>
     <row r="545" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B545" s="7"/>
+      <c r="B545" s="11"/>
     </row>
     <row r="546" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B546" s="7"/>
+      <c r="B546" s="11"/>
     </row>
     <row r="547" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B547" s="7"/>
+      <c r="B547" s="11"/>
     </row>
     <row r="548" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B548" s="7"/>
+      <c r="B548" s="11"/>
     </row>
     <row r="549" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B549" s="7"/>
+      <c r="B549" s="11"/>
     </row>
     <row r="550" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B550" s="7"/>
+      <c r="B550" s="11"/>
     </row>
     <row r="551" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B551" s="7"/>
+      <c r="B551" s="11"/>
     </row>
     <row r="552" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B552" s="7"/>
+      <c r="B552" s="11"/>
     </row>
     <row r="553" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B553" s="7"/>
+      <c r="B553" s="11"/>
     </row>
     <row r="554" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B554" s="7"/>
+      <c r="B554" s="11"/>
     </row>
     <row r="555" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B555" s="7"/>
+      <c r="B555" s="11"/>
     </row>
     <row r="556" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B556" s="7"/>
+      <c r="B556" s="11"/>
     </row>
     <row r="557" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B557" s="7"/>
+      <c r="B557" s="11"/>
     </row>
     <row r="558" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B558" s="7"/>
+      <c r="B558" s="11"/>
     </row>
     <row r="559" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B559" s="7"/>
+      <c r="B559" s="11"/>
     </row>
     <row r="560" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B560" s="7"/>
+      <c r="B560" s="11"/>
     </row>
     <row r="561" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B561" s="7"/>
+      <c r="B561" s="11"/>
     </row>
     <row r="562" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B562" s="7"/>
+      <c r="B562" s="11"/>
     </row>
     <row r="563" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B563" s="7"/>
+      <c r="B563" s="11"/>
     </row>
     <row r="564" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B564" s="7"/>
+      <c r="B564" s="11"/>
     </row>
     <row r="565" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B565" s="7"/>
+      <c r="B565" s="11"/>
     </row>
     <row r="566" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B566" s="7"/>
+      <c r="B566" s="11"/>
     </row>
     <row r="567" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B567" s="7"/>
+      <c r="B567" s="11"/>
     </row>
     <row r="568" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B568" s="7"/>
+      <c r="B568" s="11"/>
     </row>
     <row r="569" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B569" s="7"/>
+      <c r="B569" s="11"/>
     </row>
     <row r="570" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B570" s="7"/>
+      <c r="B570" s="11"/>
     </row>
     <row r="571" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B571" s="7"/>
+      <c r="B571" s="11"/>
     </row>
     <row r="572" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B572" s="7"/>
+      <c r="B572" s="11"/>
     </row>
     <row r="573" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B573" s="7"/>
+      <c r="B573" s="11"/>
     </row>
     <row r="574" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B574" s="7"/>
+      <c r="B574" s="11"/>
     </row>
     <row r="575" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B575" s="7"/>
+      <c r="B575" s="11"/>
     </row>
     <row r="576" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B576" s="7"/>
+      <c r="B576" s="11"/>
     </row>
     <row r="577" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B577" s="7"/>
+      <c r="B577" s="11"/>
     </row>
     <row r="578" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B578" s="7"/>
+      <c r="B578" s="11"/>
     </row>
     <row r="579" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B579" s="7"/>
+      <c r="B579" s="11"/>
     </row>
     <row r="580" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B580" s="7"/>
+      <c r="B580" s="11"/>
     </row>
     <row r="581" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B581" s="7"/>
+      <c r="B581" s="11"/>
     </row>
     <row r="582" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B582" s="7"/>
+      <c r="B582" s="11"/>
     </row>
     <row r="583" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B583" s="7"/>
+      <c r="B583" s="11"/>
     </row>
     <row r="584" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B584" s="7"/>
+      <c r="B584" s="11"/>
     </row>
     <row r="585" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B585" s="7"/>
+      <c r="B585" s="11"/>
     </row>
     <row r="586" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B586" s="7"/>
+      <c r="B586" s="11"/>
     </row>
     <row r="587" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B587" s="7"/>
+      <c r="B587" s="11"/>
     </row>
     <row r="588" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B588" s="7"/>
+      <c r="B588" s="11"/>
     </row>
     <row r="589" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B589" s="7"/>
+      <c r="B589" s="11"/>
     </row>
     <row r="590" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B590" s="7"/>
+      <c r="B590" s="11"/>
     </row>
     <row r="591" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B591" s="7"/>
+      <c r="B591" s="11"/>
     </row>
     <row r="592" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B592" s="7"/>
+      <c r="B592" s="11"/>
     </row>
     <row r="593" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B593" s="7"/>
+      <c r="B593" s="11"/>
     </row>
     <row r="594" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B594" s="7"/>
+      <c r="B594" s="11"/>
     </row>
     <row r="595" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B595" s="7"/>
+      <c r="B595" s="11"/>
     </row>
     <row r="596" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B596" s="7"/>
+      <c r="B596" s="11"/>
     </row>
     <row r="597" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B597" s="7"/>
+      <c r="B597" s="11"/>
     </row>
     <row r="598" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B598" s="7"/>
+      <c r="B598" s="11"/>
     </row>
     <row r="599" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B599" s="7"/>
+      <c r="B599" s="11"/>
     </row>
     <row r="600" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B600" s="7"/>
+      <c r="B600" s="11"/>
     </row>
     <row r="601" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B601" s="7"/>
+      <c r="B601" s="11"/>
     </row>
     <row r="602" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B602" s="7"/>
+      <c r="B602" s="11"/>
     </row>
     <row r="603" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B603" s="7"/>
+      <c r="B603" s="11"/>
     </row>
     <row r="604" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B604" s="7"/>
+      <c r="B604" s="11"/>
     </row>
     <row r="605" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B605" s="7"/>
+      <c r="B605" s="11"/>
     </row>
     <row r="606" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B606" s="7"/>
+      <c r="B606" s="11"/>
     </row>
     <row r="607" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B607" s="7"/>
+      <c r="B607" s="11"/>
     </row>
     <row r="608" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B608" s="7"/>
+      <c r="B608" s="11"/>
     </row>
     <row r="609" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B609" s="7"/>
+      <c r="B609" s="11"/>
     </row>
     <row r="610" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B610" s="7"/>
+      <c r="B610" s="11"/>
     </row>
     <row r="611" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B611" s="7"/>
+      <c r="B611" s="11"/>
     </row>
     <row r="612" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B612" s="7"/>
+      <c r="B612" s="11"/>
     </row>
     <row r="613" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B613" s="7"/>
+      <c r="B613" s="11"/>
     </row>
     <row r="614" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B614" s="7"/>
+      <c r="B614" s="11"/>
     </row>
     <row r="615" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B615" s="7"/>
+      <c r="B615" s="11"/>
     </row>
     <row r="616" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B616" s="7"/>
+      <c r="B616" s="11"/>
     </row>
     <row r="617" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B617" s="7"/>
+      <c r="B617" s="11"/>
     </row>
     <row r="618" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B618" s="7"/>
+      <c r="B618" s="11"/>
     </row>
     <row r="619" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B619" s="7"/>
+      <c r="B619" s="11"/>
     </row>
     <row r="620" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B620" s="7"/>
+      <c r="B620" s="11"/>
     </row>
     <row r="621" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B621" s="7"/>
+      <c r="B621" s="11"/>
     </row>
     <row r="622" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B622" s="7"/>
+      <c r="B622" s="11"/>
     </row>
     <row r="623" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B623" s="7"/>
+      <c r="B623" s="11"/>
     </row>
     <row r="624" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B624" s="7"/>
+      <c r="B624" s="11"/>
     </row>
     <row r="625" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B625" s="7"/>
+      <c r="B625" s="11"/>
     </row>
     <row r="626" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B626" s="7"/>
+      <c r="B626" s="11"/>
     </row>
     <row r="627" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B627" s="7"/>
+      <c r="B627" s="11"/>
     </row>
     <row r="628" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B628" s="7"/>
+      <c r="B628" s="11"/>
     </row>
     <row r="629" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B629" s="7"/>
+      <c r="B629" s="11"/>
     </row>
     <row r="630" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B630" s="7"/>
+      <c r="B630" s="11"/>
     </row>
     <row r="631" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B631" s="7"/>
+      <c r="B631" s="11"/>
     </row>
     <row r="632" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B632" s="7"/>
+      <c r="B632" s="11"/>
     </row>
     <row r="633" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B633" s="7"/>
+      <c r="B633" s="11"/>
     </row>
     <row r="634" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B634" s="7"/>
+      <c r="B634" s="11"/>
     </row>
     <row r="635" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B635" s="7"/>
+      <c r="B635" s="11"/>
     </row>
     <row r="636" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B636" s="7"/>
+      <c r="B636" s="11"/>
     </row>
     <row r="637" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B637" s="7"/>
+      <c r="B637" s="11"/>
     </row>
     <row r="638" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B638" s="7"/>
+      <c r="B638" s="11"/>
     </row>
     <row r="639" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B639" s="7"/>
+      <c r="B639" s="11"/>
     </row>
     <row r="640" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B640" s="7"/>
+      <c r="B640" s="11"/>
     </row>
     <row r="641" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B641" s="7"/>
+      <c r="B641" s="11"/>
     </row>
     <row r="642" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B642" s="7"/>
+      <c r="B642" s="11"/>
     </row>
     <row r="643" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B643" s="7"/>
+      <c r="B643" s="11"/>
     </row>
     <row r="644" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B644" s="7"/>
+      <c r="B644" s="11"/>
     </row>
     <row r="645" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B645" s="7"/>
+      <c r="B645" s="11"/>
     </row>
     <row r="646" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B646" s="7"/>
+      <c r="B646" s="11"/>
     </row>
     <row r="647" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B647" s="7"/>
+      <c r="B647" s="11"/>
     </row>
     <row r="648" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B648" s="7"/>
+      <c r="B648" s="11"/>
     </row>
     <row r="649" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B649" s="7"/>
+      <c r="B649" s="11"/>
     </row>
     <row r="650" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B650" s="7"/>
+      <c r="B650" s="11"/>
     </row>
     <row r="651" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B651" s="7"/>
+      <c r="B651" s="11"/>
     </row>
     <row r="652" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B652" s="7"/>
+      <c r="B652" s="11"/>
     </row>
     <row r="653" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B653" s="7"/>
+      <c r="B653" s="11"/>
     </row>
     <row r="654" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B654" s="7"/>
+      <c r="B654" s="11"/>
     </row>
     <row r="655" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B655" s="7"/>
+      <c r="B655" s="11"/>
     </row>
     <row r="656" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B656" s="7"/>
+      <c r="B656" s="11"/>
     </row>
     <row r="657" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B657" s="7"/>
+      <c r="B657" s="11"/>
     </row>
     <row r="658" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B658" s="7"/>
+      <c r="B658" s="11"/>
     </row>
     <row r="659" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B659" s="7"/>
+      <c r="B659" s="11"/>
     </row>
     <row r="660" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B660" s="7"/>
+      <c r="B660" s="11"/>
     </row>
     <row r="661" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B661" s="7"/>
+      <c r="B661" s="11"/>
     </row>
     <row r="662" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B662" s="7"/>
+      <c r="B662" s="11"/>
     </row>
     <row r="663" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B663" s="7"/>
+      <c r="B663" s="11"/>
     </row>
     <row r="664" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B664" s="7"/>
+      <c r="B664" s="11"/>
     </row>
     <row r="665" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B665" s="7"/>
+      <c r="B665" s="11"/>
     </row>
     <row r="666" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B666" s="7"/>
+      <c r="B666" s="11"/>
     </row>
     <row r="667" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B667" s="7"/>
+      <c r="B667" s="11"/>
     </row>
     <row r="668" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B668" s="7"/>
+      <c r="B668" s="11"/>
     </row>
     <row r="669" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B669" s="7"/>
+      <c r="B669" s="11"/>
     </row>
     <row r="670" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B670" s="7"/>
+      <c r="B670" s="11"/>
     </row>
     <row r="671" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B671" s="7"/>
+      <c r="B671" s="11"/>
     </row>
     <row r="672" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B672" s="7"/>
+      <c r="B672" s="11"/>
     </row>
     <row r="673" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B673" s="7"/>
+      <c r="B673" s="11"/>
     </row>
     <row r="674" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B674" s="7"/>
+      <c r="B674" s="11"/>
     </row>
     <row r="675" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B675" s="7"/>
+      <c r="B675" s="11"/>
     </row>
     <row r="676" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B676" s="7"/>
+      <c r="B676" s="11"/>
     </row>
     <row r="677" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B677" s="7"/>
+      <c r="B677" s="11"/>
     </row>
     <row r="678" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B678" s="7"/>
+      <c r="B678" s="11"/>
     </row>
     <row r="679" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B679" s="7"/>
+      <c r="B679" s="11"/>
     </row>
     <row r="680" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B680" s="7"/>
+      <c r="B680" s="11"/>
     </row>
     <row r="681" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B681" s="7"/>
+      <c r="B681" s="11"/>
     </row>
     <row r="682" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B682" s="7"/>
+      <c r="B682" s="11"/>
     </row>
     <row r="683" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B683" s="7"/>
+      <c r="B683" s="11"/>
     </row>
     <row r="684" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B684" s="7"/>
+      <c r="B684" s="11"/>
     </row>
     <row r="685" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B685" s="7"/>
+      <c r="B685" s="11"/>
     </row>
     <row r="686" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B686" s="7"/>
+      <c r="B686" s="11"/>
     </row>
     <row r="687" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B687" s="7"/>
+      <c r="B687" s="11"/>
     </row>
     <row r="688" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B688" s="7"/>
+      <c r="B688" s="11"/>
     </row>
     <row r="689" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B689" s="7"/>
+      <c r="B689" s="11"/>
     </row>
     <row r="690" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B690" s="7"/>
+      <c r="B690" s="11"/>
     </row>
     <row r="691" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B691" s="7"/>
+      <c r="B691" s="11"/>
     </row>
     <row r="692" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B692" s="7"/>
+      <c r="B692" s="11"/>
     </row>
     <row r="693" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B693" s="7"/>
+      <c r="B693" s="11"/>
     </row>
     <row r="694" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B694" s="7"/>
+      <c r="B694" s="11"/>
     </row>
     <row r="695" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B695" s="7"/>
+      <c r="B695" s="11"/>
     </row>
     <row r="696" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B696" s="7"/>
+      <c r="B696" s="11"/>
     </row>
     <row r="697" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B697" s="7"/>
+      <c r="B697" s="11"/>
     </row>
     <row r="698" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B698" s="7"/>
+      <c r="B698" s="11"/>
     </row>
     <row r="699" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B699" s="7"/>
+      <c r="B699" s="11"/>
     </row>
     <row r="700" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B700" s="7"/>
+      <c r="B700" s="11"/>
     </row>
     <row r="701" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B701" s="7"/>
+      <c r="B701" s="11"/>
     </row>
     <row r="702" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B702" s="7"/>
+      <c r="B702" s="11"/>
     </row>
     <row r="703" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B703" s="7"/>
+      <c r="B703" s="11"/>
     </row>
     <row r="704" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B704" s="7"/>
+      <c r="B704" s="11"/>
     </row>
     <row r="705" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B705" s="7"/>
+      <c r="B705" s="11"/>
     </row>
     <row r="706" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B706" s="7"/>
+      <c r="B706" s="11"/>
     </row>
     <row r="707" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B707" s="7"/>
+      <c r="B707" s="11"/>
     </row>
     <row r="708" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B708" s="7"/>
+      <c r="B708" s="11"/>
     </row>
     <row r="709" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B709" s="7"/>
+      <c r="B709" s="11"/>
     </row>
     <row r="710" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B710" s="7"/>
+      <c r="B710" s="11"/>
     </row>
     <row r="711" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B711" s="7"/>
+      <c r="B711" s="11"/>
     </row>
     <row r="712" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B712" s="7"/>
+      <c r="B712" s="11"/>
     </row>
     <row r="713" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B713" s="7"/>
+      <c r="B713" s="11"/>
     </row>
     <row r="714" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B714" s="7"/>
+      <c r="B714" s="11"/>
     </row>
     <row r="715" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B715" s="7"/>
+      <c r="B715" s="11"/>
     </row>
     <row r="716" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B716" s="7"/>
+      <c r="B716" s="11"/>
     </row>
     <row r="717" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B717" s="7"/>
+      <c r="B717" s="11"/>
     </row>
     <row r="718" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B718" s="7"/>
+      <c r="B718" s="11"/>
     </row>
     <row r="719" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B719" s="7"/>
+      <c r="B719" s="11"/>
     </row>
     <row r="720" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B720" s="7"/>
+      <c r="B720" s="11"/>
     </row>
     <row r="721" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B721" s="7"/>
+      <c r="B721" s="11"/>
     </row>
     <row r="722" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B722" s="7"/>
+      <c r="B722" s="11"/>
     </row>
     <row r="723" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B723" s="7"/>
+      <c r="B723" s="11"/>
     </row>
     <row r="724" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B724" s="7"/>
+      <c r="B724" s="11"/>
     </row>
     <row r="725" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B725" s="7"/>
+      <c r="B725" s="11"/>
     </row>
     <row r="726" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B726" s="7"/>
+      <c r="B726" s="11"/>
     </row>
     <row r="727" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B727" s="7"/>
+      <c r="B727" s="11"/>
     </row>
     <row r="728" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B728" s="7"/>
+      <c r="B728" s="11"/>
     </row>
     <row r="729" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B729" s="7"/>
+      <c r="B729" s="11"/>
     </row>
     <row r="730" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B730" s="7"/>
+      <c r="B730" s="11"/>
     </row>
     <row r="731" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B731" s="7"/>
+      <c r="B731" s="11"/>
     </row>
     <row r="732" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B732" s="7"/>
+      <c r="B732" s="11"/>
     </row>
     <row r="733" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B733" s="7"/>
+      <c r="B733" s="11"/>
     </row>
     <row r="734" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B734" s="7"/>
+      <c r="B734" s="11"/>
     </row>
     <row r="735" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B735" s="7"/>
+      <c r="B735" s="11"/>
     </row>
     <row r="736" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B736" s="7"/>
+      <c r="B736" s="11"/>
     </row>
     <row r="737" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B737" s="7"/>
+      <c r="B737" s="11"/>
     </row>
     <row r="738" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B738" s="7"/>
+      <c r="B738" s="11"/>
     </row>
     <row r="739" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B739" s="7"/>
+      <c r="B739" s="11"/>
     </row>
     <row r="740" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B740" s="7"/>
+      <c r="B740" s="11"/>
     </row>
     <row r="741" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B741" s="7"/>
+      <c r="B741" s="11"/>
     </row>
     <row r="742" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B742" s="7"/>
+      <c r="B742" s="11"/>
     </row>
     <row r="743" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B743" s="7"/>
+      <c r="B743" s="11"/>
     </row>
     <row r="744" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B744" s="7"/>
+      <c r="B744" s="11"/>
     </row>
     <row r="745" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B745" s="7"/>
+      <c r="B745" s="11"/>
     </row>
     <row r="746" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B746" s="7"/>
+      <c r="B746" s="11"/>
     </row>
     <row r="747" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B747" s="7"/>
+      <c r="B747" s="11"/>
     </row>
     <row r="748" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B748" s="7"/>
+      <c r="B748" s="11"/>
     </row>
     <row r="749" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B749" s="7"/>
+      <c r="B749" s="11"/>
     </row>
     <row r="750" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B750" s="7"/>
+      <c r="B750" s="11"/>
     </row>
     <row r="751" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B751" s="7"/>
+      <c r="B751" s="11"/>
     </row>
     <row r="752" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B752" s="7"/>
+      <c r="B752" s="11"/>
     </row>
     <row r="753" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B753" s="7"/>
+      <c r="B753" s="11"/>
     </row>
     <row r="754" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B754" s="7"/>
+      <c r="B754" s="11"/>
     </row>
     <row r="755" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B755" s="7"/>
+      <c r="B755" s="11"/>
     </row>
     <row r="756" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B756" s="7"/>
+      <c r="B756" s="11"/>
     </row>
     <row r="757" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B757" s="7"/>
+      <c r="B757" s="11"/>
     </row>
     <row r="758" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B758" s="7"/>
+      <c r="B758" s="11"/>
     </row>
     <row r="759" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B759" s="7"/>
+      <c r="B759" s="11"/>
     </row>
     <row r="760" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B760" s="7"/>
+      <c r="B760" s="11"/>
     </row>
     <row r="761" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B761" s="7"/>
+      <c r="B761" s="11"/>
     </row>
     <row r="762" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B762" s="7"/>
+      <c r="B762" s="11"/>
     </row>
     <row r="763" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B763" s="7"/>
+      <c r="B763" s="11"/>
     </row>
     <row r="764" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B764" s="7"/>
+      <c r="B764" s="11"/>
     </row>
     <row r="765" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B765" s="7"/>
+      <c r="B765" s="11"/>
     </row>
     <row r="766" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B766" s="7"/>
+      <c r="B766" s="11"/>
     </row>
     <row r="767" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B767" s="7"/>
+      <c r="B767" s="11"/>
     </row>
     <row r="768" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B768" s="7"/>
+      <c r="B768" s="11"/>
     </row>
     <row r="769" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B769" s="7"/>
+      <c r="B769" s="11"/>
     </row>
     <row r="770" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B770" s="7"/>
+      <c r="B770" s="11"/>
     </row>
     <row r="771" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B771" s="7"/>
+      <c r="B771" s="11"/>
     </row>
     <row r="772" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B772" s="7"/>
+      <c r="B772" s="11"/>
     </row>
     <row r="773" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B773" s="7"/>
+      <c r="B773" s="11"/>
     </row>
     <row r="774" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B774" s="7"/>
+      <c r="B774" s="11"/>
     </row>
     <row r="775" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B775" s="7"/>
+      <c r="B775" s="11"/>
     </row>
     <row r="776" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B776" s="7"/>
+      <c r="B776" s="11"/>
     </row>
     <row r="777" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B777" s="7"/>
+      <c r="B777" s="11"/>
     </row>
     <row r="778" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B778" s="7"/>
+      <c r="B778" s="11"/>
     </row>
     <row r="779" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B779" s="7"/>
+      <c r="B779" s="11"/>
     </row>
     <row r="780" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B780" s="7"/>
+      <c r="B780" s="11"/>
     </row>
     <row r="781" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B781" s="7"/>
+      <c r="B781" s="11"/>
     </row>
     <row r="782" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B782" s="7"/>
+      <c r="B782" s="11"/>
     </row>
     <row r="783" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B783" s="7"/>
+      <c r="B783" s="11"/>
     </row>
     <row r="784" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B784" s="7"/>
+      <c r="B784" s="11"/>
     </row>
     <row r="785" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B785" s="7"/>
+      <c r="B785" s="11"/>
     </row>
     <row r="786" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B786" s="7"/>
+      <c r="B786" s="11"/>
     </row>
     <row r="787" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B787" s="7"/>
+      <c r="B787" s="11"/>
     </row>
     <row r="788" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B788" s="7"/>
+      <c r="B788" s="11"/>
     </row>
     <row r="789" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B789" s="7"/>
+      <c r="B789" s="11"/>
     </row>
     <row r="790" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B790" s="7"/>
+      <c r="B790" s="11"/>
     </row>
     <row r="791" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B791" s="7"/>
+      <c r="B791" s="11"/>
     </row>
     <row r="792" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B792" s="7"/>
+      <c r="B792" s="11"/>
     </row>
     <row r="793" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B793" s="7"/>
+      <c r="B793" s="11"/>
     </row>
     <row r="794" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B794" s="7"/>
+      <c r="B794" s="11"/>
     </row>
     <row r="795" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B795" s="7"/>
+      <c r="B795" s="11"/>
     </row>
     <row r="796" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B796" s="7"/>
+      <c r="B796" s="11"/>
     </row>
     <row r="797" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B797" s="7"/>
+      <c r="B797" s="11"/>
     </row>
     <row r="798" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B798" s="7"/>
+      <c r="B798" s="11"/>
     </row>
     <row r="799" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B799" s="7"/>
+      <c r="B799" s="11"/>
     </row>
     <row r="800" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B800" s="7"/>
+      <c r="B800" s="11"/>
     </row>
     <row r="801" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B801" s="7"/>
+      <c r="B801" s="11"/>
     </row>
     <row r="802" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B802" s="7"/>
+      <c r="B802" s="11"/>
     </row>
     <row r="803" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B803" s="7"/>
+      <c r="B803" s="11"/>
     </row>
     <row r="804" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B804" s="7"/>
+      <c r="B804" s="11"/>
     </row>
     <row r="805" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B805" s="7"/>
+      <c r="B805" s="11"/>
     </row>
     <row r="806" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B806" s="7"/>
+      <c r="B806" s="11"/>
     </row>
     <row r="807" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B807" s="7"/>
+      <c r="B807" s="11"/>
     </row>
     <row r="808" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B808" s="7"/>
+      <c r="B808" s="11"/>
     </row>
     <row r="809" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B809" s="7"/>
+      <c r="B809" s="11"/>
     </row>
     <row r="810" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B810" s="7"/>
+      <c r="B810" s="11"/>
     </row>
     <row r="811" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B811" s="7"/>
+      <c r="B811" s="11"/>
     </row>
     <row r="812" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B812" s="7"/>
+      <c r="B812" s="11"/>
     </row>
     <row r="813" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B813" s="7"/>
+      <c r="B813" s="11"/>
     </row>
     <row r="814" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B814" s="7"/>
+      <c r="B814" s="11"/>
     </row>
     <row r="815" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B815" s="7"/>
+      <c r="B815" s="11"/>
     </row>
     <row r="816" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B816" s="7"/>
+      <c r="B816" s="11"/>
     </row>
     <row r="817" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B817" s="7"/>
+      <c r="B817" s="11"/>
     </row>
     <row r="818" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B818" s="7"/>
+      <c r="B818" s="11"/>
     </row>
     <row r="819" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B819" s="7"/>
+      <c r="B819" s="11"/>
     </row>
     <row r="820" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B820" s="7"/>
+      <c r="B820" s="11"/>
     </row>
     <row r="821" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B821" s="7"/>
+      <c r="B821" s="11"/>
     </row>
     <row r="822" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B822" s="7"/>
+      <c r="B822" s="11"/>
     </row>
     <row r="823" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B823" s="7"/>
+      <c r="B823" s="11"/>
     </row>
     <row r="824" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B824" s="7"/>
+      <c r="B824" s="11"/>
     </row>
     <row r="825" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B825" s="7"/>
+      <c r="B825" s="11"/>
     </row>
     <row r="826" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B826" s="7"/>
+      <c r="B826" s="11"/>
     </row>
     <row r="827" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B827" s="7"/>
+      <c r="B827" s="11"/>
     </row>
     <row r="828" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B828" s="7"/>
+      <c r="B828" s="11"/>
     </row>
     <row r="829" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B829" s="7"/>
+      <c r="B829" s="11"/>
     </row>
     <row r="830" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B830" s="7"/>
+      <c r="B830" s="11"/>
     </row>
     <row r="831" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B831" s="7"/>
+      <c r="B831" s="11"/>
     </row>
     <row r="832" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B832" s="7"/>
+      <c r="B832" s="11"/>
     </row>
     <row r="833" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B833" s="7"/>
+      <c r="B833" s="11"/>
     </row>
     <row r="834" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B834" s="7"/>
+      <c r="B834" s="11"/>
     </row>
     <row r="835" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B835" s="7"/>
+      <c r="B835" s="11"/>
     </row>
     <row r="836" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B836" s="7"/>
+      <c r="B836" s="11"/>
     </row>
     <row r="837" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B837" s="7"/>
+      <c r="B837" s="11"/>
     </row>
     <row r="838" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B838" s="7"/>
+      <c r="B838" s="11"/>
     </row>
     <row r="839" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B839" s="7"/>
+      <c r="B839" s="11"/>
     </row>
     <row r="840" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B840" s="7"/>
+      <c r="B840" s="11"/>
     </row>
     <row r="841" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B841" s="7"/>
+      <c r="B841" s="11"/>
     </row>
     <row r="842" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B842" s="7"/>
+      <c r="B842" s="11"/>
     </row>
     <row r="843" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B843" s="7"/>
+      <c r="B843" s="11"/>
     </row>
     <row r="844" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B844" s="7"/>
+      <c r="B844" s="11"/>
     </row>
     <row r="845" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B845" s="7"/>
+      <c r="B845" s="11"/>
     </row>
     <row r="846" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B846" s="7"/>
+      <c r="B846" s="11"/>
     </row>
     <row r="847" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B847" s="7"/>
+      <c r="B847" s="11"/>
     </row>
     <row r="848" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B848" s="7"/>
+      <c r="B848" s="11"/>
     </row>
     <row r="849" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B849" s="7"/>
+      <c r="B849" s="11"/>
     </row>
     <row r="850" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B850" s="7"/>
+      <c r="B850" s="11"/>
     </row>
     <row r="851" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B851" s="7"/>
+      <c r="B851" s="11"/>
     </row>
     <row r="852" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B852" s="7"/>
+      <c r="B852" s="11"/>
     </row>
     <row r="853" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B853" s="7"/>
+      <c r="B853" s="11"/>
     </row>
     <row r="854" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B854" s="7"/>
+      <c r="B854" s="11"/>
     </row>
     <row r="855" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B855" s="7"/>
+      <c r="B855" s="11"/>
     </row>
     <row r="856" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B856" s="7"/>
+      <c r="B856" s="11"/>
     </row>
     <row r="857" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B857" s="7"/>
+      <c r="B857" s="11"/>
     </row>
     <row r="858" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B858" s="7"/>
+      <c r="B858" s="11"/>
     </row>
     <row r="859" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B859" s="7"/>
+      <c r="B859" s="11"/>
     </row>
     <row r="860" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B860" s="7"/>
+      <c r="B860" s="11"/>
     </row>
     <row r="861" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B861" s="7"/>
+      <c r="B861" s="11"/>
     </row>
     <row r="862" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B862" s="7"/>
+      <c r="B862" s="11"/>
     </row>
     <row r="863" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B863" s="7"/>
+      <c r="B863" s="11"/>
     </row>
     <row r="864" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B864" s="7"/>
+      <c r="B864" s="11"/>
     </row>
     <row r="865" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B865" s="7"/>
+      <c r="B865" s="11"/>
     </row>
     <row r="866" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B866" s="7"/>
+      <c r="B866" s="11"/>
     </row>
     <row r="867" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B867" s="7"/>
+      <c r="B867" s="11"/>
     </row>
     <row r="868" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B868" s="7"/>
+      <c r="B868" s="11"/>
     </row>
     <row r="869" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B869" s="7"/>
+      <c r="B869" s="11"/>
     </row>
     <row r="870" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B870" s="7"/>
+      <c r="B870" s="11"/>
     </row>
     <row r="871" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B871" s="7"/>
+      <c r="B871" s="11"/>
     </row>
     <row r="872" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B872" s="7"/>
+      <c r="B872" s="11"/>
     </row>
     <row r="873" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B873" s="7"/>
+      <c r="B873" s="11"/>
     </row>
     <row r="874" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B874" s="7"/>
+      <c r="B874" s="11"/>
     </row>
     <row r="875" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B875" s="7"/>
+      <c r="B875" s="11"/>
     </row>
     <row r="876" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B876" s="7"/>
+      <c r="B876" s="11"/>
     </row>
     <row r="877" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B877" s="7"/>
+      <c r="B877" s="11"/>
     </row>
     <row r="878" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B878" s="7"/>
+      <c r="B878" s="11"/>
     </row>
     <row r="879" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B879" s="7"/>
+      <c r="B879" s="11"/>
     </row>
     <row r="880" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B880" s="7"/>
+      <c r="B880" s="11"/>
     </row>
     <row r="881" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B881" s="7"/>
+      <c r="B881" s="11"/>
     </row>
     <row r="882" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B882" s="7"/>
+      <c r="B882" s="11"/>
     </row>
     <row r="883" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B883" s="7"/>
+      <c r="B883" s="11"/>
     </row>
     <row r="884" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B884" s="7"/>
+      <c r="B884" s="11"/>
     </row>
     <row r="885" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B885" s="7"/>
+      <c r="B885" s="11"/>
     </row>
     <row r="886" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B886" s="7"/>
+      <c r="B886" s="11"/>
     </row>
     <row r="887" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B887" s="7"/>
+      <c r="B887" s="11"/>
     </row>
     <row r="888" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B888" s="7"/>
+      <c r="B888" s="11"/>
     </row>
     <row r="889" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B889" s="7"/>
+      <c r="B889" s="11"/>
     </row>
     <row r="890" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B890" s="7"/>
+      <c r="B890" s="11"/>
     </row>
     <row r="891" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B891" s="7"/>
+      <c r="B891" s="11"/>
     </row>
     <row r="892" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B892" s="7"/>
+      <c r="B892" s="11"/>
     </row>
     <row r="893" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B893" s="7"/>
+      <c r="B893" s="11"/>
     </row>
     <row r="894" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B894" s="7"/>
+      <c r="B894" s="11"/>
     </row>
     <row r="895" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B895" s="7"/>
+      <c r="B895" s="11"/>
     </row>
     <row r="896" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B896" s="7"/>
+      <c r="B896" s="11"/>
     </row>
     <row r="897" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B897" s="7"/>
+      <c r="B897" s="11"/>
     </row>
     <row r="898" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B898" s="7"/>
+      <c r="B898" s="11"/>
     </row>
     <row r="899" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B899" s="7"/>
+      <c r="B899" s="11"/>
     </row>
     <row r="900" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B900" s="7"/>
+      <c r="B900" s="11"/>
     </row>
     <row r="901" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B901" s="7"/>
+      <c r="B901" s="11"/>
     </row>
     <row r="902" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B902" s="7"/>
+      <c r="B902" s="11"/>
     </row>
     <row r="903" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B903" s="7"/>
+      <c r="B903" s="11"/>
     </row>
     <row r="904" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B904" s="7"/>
+      <c r="B904" s="11"/>
     </row>
     <row r="905" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B905" s="7"/>
+      <c r="B905" s="11"/>
     </row>
     <row r="906" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B906" s="7"/>
+      <c r="B906" s="11"/>
     </row>
     <row r="907" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B907" s="7"/>
+      <c r="B907" s="11"/>
     </row>
     <row r="908" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B908" s="7"/>
+      <c r="B908" s="11"/>
     </row>
     <row r="909" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B909" s="7"/>
+      <c r="B909" s="11"/>
     </row>
     <row r="910" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B910" s="7"/>
+      <c r="B910" s="11"/>
     </row>
     <row r="911" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B911" s="7"/>
+      <c r="B911" s="11"/>
     </row>
     <row r="912" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B912" s="7"/>
+      <c r="B912" s="11"/>
     </row>
     <row r="913" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B913" s="7"/>
+      <c r="B913" s="11"/>
     </row>
     <row r="914" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B914" s="7"/>
+      <c r="B914" s="11"/>
     </row>
     <row r="915" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B915" s="7"/>
+      <c r="B915" s="11"/>
     </row>
     <row r="916" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B916" s="7"/>
+      <c r="B916" s="11"/>
     </row>
     <row r="917" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B917" s="7"/>
+      <c r="B917" s="11"/>
     </row>
     <row r="918" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B918" s="7"/>
+      <c r="B918" s="11"/>
     </row>
     <row r="919" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B919" s="7"/>
+      <c r="B919" s="11"/>
     </row>
     <row r="920" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B920" s="7"/>
+      <c r="B920" s="11"/>
     </row>
     <row r="921" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B921" s="7"/>
+      <c r="B921" s="11"/>
     </row>
     <row r="922" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B922" s="7"/>
+      <c r="B922" s="11"/>
     </row>
     <row r="923" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B923" s="7"/>
+      <c r="B923" s="11"/>
     </row>
     <row r="924" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B924" s="7"/>
+      <c r="B924" s="11"/>
     </row>
     <row r="925" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B925" s="7"/>
+      <c r="B925" s="11"/>
     </row>
     <row r="926" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B926" s="7"/>
+      <c r="B926" s="11"/>
     </row>
     <row r="927" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B927" s="7"/>
+      <c r="B927" s="11"/>
     </row>
     <row r="928" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B928" s="7"/>
+      <c r="B928" s="11"/>
     </row>
     <row r="929" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B929" s="7"/>
+      <c r="B929" s="11"/>
     </row>
     <row r="930" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B930" s="7"/>
+      <c r="B930" s="11"/>
     </row>
     <row r="931" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B931" s="7"/>
+      <c r="B931" s="11"/>
     </row>
     <row r="932" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B932" s="7"/>
+      <c r="B932" s="11"/>
     </row>
     <row r="933" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B933" s="7"/>
+      <c r="B933" s="11"/>
     </row>
     <row r="934" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B934" s="7"/>
+      <c r="B934" s="11"/>
     </row>
     <row r="935" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B935" s="7"/>
+      <c r="B935" s="11"/>
     </row>
     <row r="936" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B936" s="7"/>
+      <c r="B936" s="11"/>
     </row>
     <row r="937" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B937" s="7"/>
+      <c r="B937" s="11"/>
     </row>
     <row r="938" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B938" s="7"/>
+      <c r="B938" s="11"/>
     </row>
     <row r="939" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B939" s="7"/>
+      <c r="B939" s="11"/>
     </row>
     <row r="940" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B940" s="7"/>
+      <c r="B940" s="11"/>
     </row>
     <row r="941" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B941" s="7"/>
+      <c r="B941" s="11"/>
     </row>
     <row r="942" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B942" s="7"/>
+      <c r="B942" s="11"/>
     </row>
     <row r="943" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B943" s="7"/>
+      <c r="B943" s="11"/>
     </row>
     <row r="944" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B944" s="7"/>
+      <c r="B944" s="11"/>
     </row>
     <row r="945" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B945" s="7"/>
+      <c r="B945" s="11"/>
     </row>
     <row r="946" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B946" s="7"/>
+      <c r="B946" s="11"/>
     </row>
     <row r="947" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B947" s="7"/>
+      <c r="B947" s="11"/>
     </row>
     <row r="948" spans="2:2" ht="15.75" customHeight="1">
-      <c r="B948" s="7"/>
+      <c r="B948" s="11"/>
+    </row>
+    <row r="949" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B949" s="11"/>
+    </row>
+    <row r="950" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B950" s="11"/>
+    </row>
+    <row r="951" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B951" s="11"/>
+    </row>
+    <row r="952" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B952" s="11"/>
+    </row>
+    <row r="953" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B953" s="11"/>
+    </row>
+    <row r="954" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B954" s="11"/>
+    </row>
+    <row r="955" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B955" s="11"/>
+    </row>
+    <row r="956" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B956" s="11"/>
+    </row>
+    <row r="957" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B957" s="11"/>
+    </row>
+    <row r="958" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B958" s="11"/>
+    </row>
+    <row r="959" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B959" s="11"/>
+    </row>
+    <row r="960" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B960" s="11"/>
+    </row>
+    <row r="961" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B961" s="11"/>
+    </row>
+    <row r="962" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B962" s="11"/>
+    </row>
+    <row r="963" spans="2:2" ht="15.75" customHeight="1">
+      <c r="B963" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7609,6 +8097,7 @@
   <hyperlinks>
     <hyperlink ref="A10" r:id="rId1" location="activityIsSourceOfPerformanceRelation" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B10" r:id="rId2" location="activityIsSourceOfPerformanceRelation" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{25E1AF73-AF54-41D9-9E37-A6CA366AFF2E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
